--- a/Disign/Map.xlsx
+++ b/Disign/Map.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DAE882-19B2-49C6-86BC-66D2760115BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B87F26C-9808-4F10-A9CD-76EC8D44C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
   </bookViews>
   <sheets>
     <sheet name="VerControl" sheetId="1" r:id="rId1"/>
     <sheet name="타일" sheetId="3" r:id="rId2"/>
+    <sheet name="맵 구조" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t>담당자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,18 +100,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타일, 맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1] 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2] 맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>: 맵에 어떤 타일들이 설치되는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2) 오브젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>: 맵에 어떤 오브젝트들이 설치되는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ground</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +137,322 @@
   </si>
   <si>
     <t>ㅡ자 평지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 평지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 맵에 어떤 평지들이 설치되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시발판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이는 평지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 움직일 수 있는 기초 땅이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이는 평지 위에 캐릭터가 올라타면 평지와 캐릭터가 함께 움직인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 평지에 캐릭터에게 스턴, hp 감소 등을 일으킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 맵에 어떤 장애물들이 설치되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음스테이지로 넘어갈 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground_3</t>
+  </si>
+  <si>
+    <t>* 해당 평지들은 서로 이어붙이도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* y축 일정거리 이내에 다른 발판이 있을 경우, 아랫 발판으로 내려갈 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obstacle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prickle</t>
+  </si>
+  <si>
+    <t>진자운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendulum</t>
+  </si>
+  <si>
+    <t>폭탄 조형물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>ObstacleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 타입별 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감옥창틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jail</t>
+  </si>
+  <si>
+    <t>보물상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">treasure </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임과 관련된 재화, 아이템을 얻을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 움직이는 평지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 움직이는 평지에는 어떤 요소가 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moving_platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>움직이는 평지 타입별 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이는 속도에 대한 값이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이는 방향에 대한 값이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>움직이는 거리에 대한 값이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.1</t>
+  </si>
+  <si>
+    <t>타일, 맵구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.6.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2] 맵 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1] 맵 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 전반적인 맵 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 보물상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 보물상자에 어떤 물건들이 나오는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreasureType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽝타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 총 6스테이지, 각 스테이지별 5~7분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3스테이지</t>
+  </si>
+  <si>
+    <t>4스테이지</t>
+  </si>
+  <si>
+    <t>5스테이지</t>
+  </si>
+  <si>
+    <t>6스테이지</t>
+  </si>
+  <si>
+    <t>잡몹, 엘리트몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡몹, 엘리트몬스터, 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 오브젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 일반맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) A맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) B맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) C맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 보스맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) D맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) E맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) F맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 1, 3, 5 스테이지는 2) 일반맵 중 랜덤이 나온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 4, 5, 6 스테이지는 3) 보스맵 중 랜덤이 나온다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CA949-F9A7-4535-9843-0E60E5A91FBB}">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -740,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -748,13 +1049,24 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -766,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E8296F-A1BE-4767-9A06-69039F753C18}">
-  <dimension ref="B3:G17"/>
+  <dimension ref="B3:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -785,20 +1097,20 @@
   <sheetData>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>8</v>
@@ -807,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -829,40 +1141,547 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3562D6E0-9CE4-40B2-BCFF-B9C67D7B61E6}">
+  <dimension ref="B3:D81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="19.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Disign/Map.xlsx
+++ b/Disign/Map.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B87F26C-9808-4F10-A9CD-76EC8D44C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4DC5F9-B508-45B8-B619-686B8DF0B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
   </bookViews>
   <sheets>
     <sheet name="VerControl" sheetId="1" r:id="rId1"/>
     <sheet name="타일" sheetId="3" r:id="rId2"/>
     <sheet name="맵 구조" sheetId="4" r:id="rId3"/>
+    <sheet name="맵 UI" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
   <si>
     <t>담당자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1] 맵 구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 전반적인 맵 구조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,6 +450,74 @@
   </si>
   <si>
     <t>* 4, 5, 6 스테이지는 3) 보스맵 중 랜덤이 나온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 발판위로 캐릭터가 지나가면 hp가 닳는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진자운동을 하는 공에 캐릭터가 닿으면 일정시간 스턴이 되고, 캐릭터가 밀려나며 hp가 닳는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄환처럼 쏴지는 폭탄에 캐릭터가 닿으면 hp가 닳는다. 점프로 회피가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘에서 감옥창틀이 떨어진다. 원거리 공격하는 몬스터만 플레이어를 때릴 수 있고, 
+플레이어는 탈출하려면 해당 감옥창틀을 깨야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3] 맵 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 맵 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋스토어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/free-platformer-tileset-182519</t>
+  </si>
+  <si>
+    <t>무료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물상자 타입별 특징</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -618,13 +683,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +774,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,6 +805,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6772214</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3124200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CFFB9B-524F-15A1-61D9-4BC2B98CB26B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="1272540"/>
+          <a:ext cx="6703634" cy="3032760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1080,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E8296F-A1BE-4767-9A06-69039F753C18}">
   <dimension ref="B3:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -1140,87 +1300,87 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="11">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="11">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="14">
         <v>5</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1255,35 +1415,35 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1337,28 +1497,31 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="D38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="1">
-        <v>1</v>
+      <c r="D39" s="11">
+        <v>2</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>61</v>
@@ -1368,19 +1531,19 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="D40" s="14">
+        <v>3</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1424,72 +1587,84 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="20">
         <v>1</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="G51" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="11">
         <v>2</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="G52" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="11">
         <v>3</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="1" t="s">
+      <c r="G53" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="B54" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="14">
         <v>4</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="12" t="s">
         <v>50</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>8</v>
@@ -1498,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -1519,25 +1694,51 @@
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="20">
+        <v>1</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" s="1" t="s">
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="11">
+        <v>2</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B66" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="C66" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="14">
+        <v>3</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1549,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3562D6E0-9CE4-40B2-BCFF-B9C67D7B61E6}">
   <dimension ref="B3:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -1564,128 +1765,185 @@
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED2493B-3B59-4DDC-A544-0C3C919636C7}">
+  <dimension ref="B3:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="90.09765625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="249" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Disign/Map.xlsx
+++ b/Disign/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4DC5F9-B508-45B8-B619-686B8DF0B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C1B93-1096-41D1-888E-58ED7D1320AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
   </bookViews>
   <sheets>
     <sheet name="VerControl" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,9 +782,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1240,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E8296F-A1BE-4767-9A06-69039F753C18}">
   <dimension ref="B3:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -1320,7 +1317,7 @@
       <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="11">
@@ -1337,7 +1334,7 @@
       <c r="B11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="11">
@@ -1354,7 +1351,7 @@
       <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="11">
@@ -1418,7 +1415,7 @@
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="11">
@@ -1429,7 +1426,7 @@
       <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="11">
@@ -1517,7 +1514,7 @@
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D39" s="11">
@@ -1607,7 +1604,7 @@
       <c r="B52" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="11">
@@ -1624,7 +1621,7 @@
       <c r="B53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D53" s="11">
@@ -1650,7 +1647,7 @@
       <c r="F54" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="21" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1714,7 +1711,7 @@
       <c r="B65" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D65" s="11">
@@ -1751,7 +1748,7 @@
   <dimension ref="B3:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -1895,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED2493B-3B59-4DDC-A544-0C3C919636C7}">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
